--- a/data/trans_dic/P43E-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P43E-Clase-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3205781048814391</v>
+        <v>0.3238960339062746</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2480677767954954</v>
+        <v>0.2504173338062614</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.424317127902695</v>
+        <v>0.4187512429178133</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4519458829325829</v>
+        <v>0.4544308654056106</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3626019201324752</v>
+        <v>0.3682268953696973</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5300887026530587</v>
+        <v>0.5281300004136456</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0.2935978215785198</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.394418846149227</v>
+        <v>0.3944188461492271</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3100940683458623</v>
+        <v>0.3060127783792524</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2436168901670565</v>
+        <v>0.2419510832716448</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3369973021646165</v>
+        <v>0.3403173276866308</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4390761400593449</v>
+        <v>0.4354078518977641</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3533313491779791</v>
+        <v>0.3493848161376887</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4509600036589795</v>
+        <v>0.4524350598418823</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2158359443373472</v>
+        <v>0.2098610096188497</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08491546065826905</v>
+        <v>0.08555337591932032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2157554586525343</v>
+        <v>0.2235926036959908</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3485542365070558</v>
+        <v>0.3605378354058639</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2134500659590385</v>
+        <v>0.2111578718806296</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3849953857459738</v>
+        <v>0.3912660640792173</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         <v>0.1530205798251769</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1779088884645282</v>
+        <v>0.1779088884645281</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1696627512883683</v>
+        <v>0.1701339511082912</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1248801927830065</v>
+        <v>0.1233395556092197</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.145872749807562</v>
+        <v>0.1445519179492646</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2409449387288388</v>
+        <v>0.2385508213521292</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1900000650310684</v>
+        <v>0.1870192083141734</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2116568271647944</v>
+        <v>0.2164935044810359</v>
       </c>
     </row>
     <row r="16">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1175688366919339</v>
+        <v>0.1188250610088998</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03611514510856945</v>
+        <v>0.03800503741173166</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07056005312806109</v>
+        <v>0.07070611168524332</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1853517546110009</v>
+        <v>0.1910145688302619</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08407861087360975</v>
+        <v>0.08443564947921972</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1263796976787371</v>
+        <v>0.1241400188840432</v>
       </c>
     </row>
     <row r="19">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1355510233739484</v>
+        <v>0.134861826106301</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09529309918530364</v>
+        <v>0.09580847194288321</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1008542137197805</v>
+        <v>0.1020755982733873</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2034197642526525</v>
+        <v>0.2016165041537034</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1538006949440579</v>
+        <v>0.1573491395196213</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1733056308237905</v>
+        <v>0.1693950174904036</v>
       </c>
     </row>
     <row r="22">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2097741709213934</v>
+        <v>0.2110212454492307</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1477192143322786</v>
+        <v>0.1490111336897309</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2208251826775166</v>
+        <v>0.2203967825139121</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2491745048387944</v>
+        <v>0.2485813324808225</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1803049025058641</v>
+        <v>0.181252227897138</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2573274105854805</v>
+        <v>0.2568204958152391</v>
       </c>
     </row>
     <row r="25">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>81427</v>
+        <v>82269</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>65765</v>
+        <v>66388</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>106034</v>
+        <v>104643</v>
       </c>
     </row>
     <row r="7">
@@ -1108,13 +1108,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>114794</v>
+        <v>115425</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>96129</v>
+        <v>97621</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>132466</v>
+        <v>131977</v>
       </c>
     </row>
     <row r="8">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>82418</v>
+        <v>81333</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>71492</v>
+        <v>71003</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>77547</v>
+        <v>78311</v>
       </c>
     </row>
     <row r="11">
@@ -1180,13 +1180,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>116699</v>
+        <v>115724</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>103689</v>
+        <v>102531</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>103771</v>
+        <v>104110</v>
       </c>
     </row>
     <row r="12">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>37254</v>
+        <v>36223</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9623</v>
+        <v>9695</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17563</v>
+        <v>18201</v>
       </c>
     </row>
     <row r="15">
@@ -1252,13 +1252,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>60162</v>
+        <v>62231</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24188</v>
+        <v>23928</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>31340</v>
+        <v>31851</v>
       </c>
     </row>
     <row r="16">
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>91804</v>
+        <v>92059</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>68109</v>
+        <v>67269</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>57981</v>
+        <v>57456</v>
       </c>
     </row>
     <row r="19">
@@ -1324,13 +1324,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>130374</v>
+        <v>129079</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>103625</v>
+        <v>102000</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>84129</v>
+        <v>86051</v>
       </c>
     </row>
     <row r="20">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>55791</v>
+        <v>56387</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15590</v>
+        <v>16406</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>23022</v>
+        <v>23070</v>
       </c>
     </row>
     <row r="23">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>87956</v>
+        <v>90643</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>36294</v>
+        <v>36448</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>41235</v>
+        <v>40504</v>
       </c>
     </row>
     <row r="24">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>72765</v>
+        <v>72395</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>47493</v>
+        <v>47750</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>28670</v>
+        <v>29017</v>
       </c>
     </row>
     <row r="27">
@@ -1468,13 +1468,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>109198</v>
+        <v>108230</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>76653</v>
+        <v>78421</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>49266</v>
+        <v>48154</v>
       </c>
     </row>
     <row r="28">
@@ -1523,13 +1523,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>470907</v>
+        <v>473707</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>317204</v>
+        <v>319978</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>346571</v>
+        <v>345898</v>
       </c>
     </row>
     <row r="31">
@@ -1540,13 +1540,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>559354</v>
+        <v>558023</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>387177</v>
+        <v>389211</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>403858</v>
+        <v>403063</v>
       </c>
     </row>
     <row r="32">
